--- a/src/test/resources/com/nbg/excel/testdata.xlsx
+++ b/src/test/resources/com/nbg/excel/testdata.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQA\Nikunj\Work\Frameworks\PageObjectModelBasics\src\test\resources\com\nbg\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQA\Nikunj\Work\Frameworks\POwithFactories\src\test\resources\com\nbg\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE38D9F-E2F8-47C3-B00B-A0F408DD9F75}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970143FA-7203-4C2B-87C5-35BF89BA6F32}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{27E6C824-6606-49A1-BD3B-355FAA2D5E5B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{27E6C824-6606-49A1-BD3B-355FAA2D5E5B}"/>
   </bookViews>
   <sheets>
     <sheet name="test_suite" sheetId="3" r:id="rId1"/>
-    <sheet name="LoginTest" sheetId="1" r:id="rId2"/>
-    <sheet name="CreateAccountTest" sheetId="4" r:id="rId3"/>
+    <sheet name="SignInTest" sheetId="1" r:id="rId2"/>
+    <sheet name="FlightSearchTest" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>TCID</t>
   </si>
@@ -59,20 +59,52 @@
     <t>CreateAccountTest</t>
   </si>
   <si>
-    <t>accountname</t>
-  </si>
-  <si>
-    <t>Nikunj</t>
+    <t>fromCity</t>
+  </si>
+  <si>
+    <t>toCity</t>
+  </si>
+  <si>
+    <t>Delhi, India (DEL-Indira Gandhi Intl.)</t>
+  </si>
+  <si>
+    <t>Mumbai, India (BOM-Chhatrapati Shivaji Intl.)</t>
+  </si>
+  <si>
+    <t>fromDate</t>
+  </si>
+  <si>
+    <t>toDate</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>abc@techhive.co.in</t>
+  </si>
+  <si>
+    <t>Tech@123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="dd\/mm\/yyyy"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -95,13 +127,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -456,10 +492,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C509DA-4709-4D10-AC28-8D9FF4F0230E}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,38 +523,80 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{46178E14-DF4D-4D82-881D-08E9973B441A}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{73F54453-038D-442B-B4D1-9748592AFCD5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1D8F57-9157-42AC-B6C2-C86209C33C25}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43759</v>
+      </c>
+      <c r="D2" s="1">
+        <v>43761</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>